--- a/analysis/coral_disease_data/Reunion_data/Sere_et_al_2015_Isle_de_la_Reunion_Disease_Data.xlsx
+++ b/analysis/coral_disease_data/Reunion_data/Sere_et_al_2015_Isle_de_la_Reunion_Disease_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eden/GCMP_Global_Disease/analysis/coral_disease_data/Reunion_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDB4A7A4-D627-7A4E-B8BB-AD6EABAEAD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFDE93DB-B8E8-774A-89AD-69BB05B61804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="620" windowWidth="27080" windowHeight="16000" xr2:uid="{07146E55-3FF4-0E4B-9F3B-57A54110242E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="32">
   <si>
     <t>Genus</t>
   </si>
@@ -486,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B912B2-DB3C-B049-B847-1D59CAD70DA2}">
-  <dimension ref="A1:G143"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U35" sqref="U35"/>
+    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
+      <selection activeCell="J89" sqref="J89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2319,1432 +2319,6 @@
         <v>340.15384619999998</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" t="s">
-        <v>25</v>
-      </c>
-      <c r="C82" t="s">
-        <v>4</v>
-      </c>
-      <c r="D82" t="s">
-        <v>1</v>
-      </c>
-      <c r="E82" t="s">
-        <v>3</v>
-      </c>
-      <c r="F82" t="s">
-        <v>7</v>
-      </c>
-      <c r="G82" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>21</v>
-      </c>
-      <c r="B83">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-      <c r="D83" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" t="s">
-        <v>6</v>
-      </c>
-      <c r="F83" t="s">
-        <v>8</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>21</v>
-      </c>
-      <c r="B84">
-        <v>1.3</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84" t="s">
-        <v>5</v>
-      </c>
-      <c r="E84" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" t="s">
-        <v>8</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>19</v>
-      </c>
-      <c r="B85">
-        <v>0</v>
-      </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="D85" t="s">
-        <v>26</v>
-      </c>
-      <c r="E85" t="s">
-        <v>28</v>
-      </c>
-      <c r="F85" t="s">
-        <v>8</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>19</v>
-      </c>
-      <c r="B86">
-        <v>0.1</v>
-      </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="D86" t="s">
-        <v>29</v>
-      </c>
-      <c r="E86" t="s">
-        <v>30</v>
-      </c>
-      <c r="F86" t="s">
-        <v>8</v>
-      </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>19</v>
-      </c>
-      <c r="B87">
-        <v>0.2</v>
-      </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-      <c r="D87" t="s">
-        <v>29</v>
-      </c>
-      <c r="E87" t="s">
-        <v>31</v>
-      </c>
-      <c r="F87" t="s">
-        <v>8</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>21</v>
-      </c>
-      <c r="B88">
-        <v>11.2</v>
-      </c>
-      <c r="C88">
-        <v>0.5</v>
-      </c>
-      <c r="D88" t="s">
-        <v>26</v>
-      </c>
-      <c r="E88" t="s">
-        <v>27</v>
-      </c>
-      <c r="F88" t="s">
-        <v>8</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>21</v>
-      </c>
-      <c r="B89">
-        <v>1.2</v>
-      </c>
-      <c r="C89">
-        <v>0.8</v>
-      </c>
-      <c r="D89" t="s">
-        <v>29</v>
-      </c>
-      <c r="E89" t="s">
-        <v>30</v>
-      </c>
-      <c r="F89" t="s">
-        <v>8</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>21</v>
-      </c>
-      <c r="B90">
-        <v>0.7</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90" t="s">
-        <v>29</v>
-      </c>
-      <c r="E90" t="s">
-        <v>31</v>
-      </c>
-      <c r="F90" t="s">
-        <v>8</v>
-      </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>19</v>
-      </c>
-      <c r="B91">
-        <v>0.9</v>
-      </c>
-      <c r="C91">
-        <v>2.1</v>
-      </c>
-      <c r="D91" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" t="s">
-        <v>8</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>21</v>
-      </c>
-      <c r="B92">
-        <v>14.6</v>
-      </c>
-      <c r="C92">
-        <v>2.6</v>
-      </c>
-      <c r="D92" t="s">
-        <v>26</v>
-      </c>
-      <c r="E92" t="s">
-        <v>28</v>
-      </c>
-      <c r="F92" t="s">
-        <v>8</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>22</v>
-      </c>
-      <c r="B93">
-        <v>1</v>
-      </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-      <c r="D93" t="s">
-        <v>5</v>
-      </c>
-      <c r="E93" t="s">
-        <v>6</v>
-      </c>
-      <c r="F93" t="s">
-        <v>8</v>
-      </c>
-      <c r="G93">
-        <v>3.7083333330000001</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>22</v>
-      </c>
-      <c r="B94">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-      <c r="D94" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" t="s">
-        <v>14</v>
-      </c>
-      <c r="F94" t="s">
-        <v>8</v>
-      </c>
-      <c r="G94">
-        <v>3.7083333330000001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>22</v>
-      </c>
-      <c r="B95">
-        <v>0.1</v>
-      </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95" t="s">
-        <v>26</v>
-      </c>
-      <c r="E95" t="s">
-        <v>27</v>
-      </c>
-      <c r="F95" t="s">
-        <v>8</v>
-      </c>
-      <c r="G95">
-        <v>3.7083333330000001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>22</v>
-      </c>
-      <c r="B96">
-        <v>0</v>
-      </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-      <c r="D96" t="s">
-        <v>26</v>
-      </c>
-      <c r="E96" t="s">
-        <v>28</v>
-      </c>
-      <c r="F96" t="s">
-        <v>8</v>
-      </c>
-      <c r="G96">
-        <v>3.7083333330000001</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>22</v>
-      </c>
-      <c r="B97">
-        <v>0.8</v>
-      </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-      <c r="D97" t="s">
-        <v>29</v>
-      </c>
-      <c r="E97" t="s">
-        <v>30</v>
-      </c>
-      <c r="F97" t="s">
-        <v>8</v>
-      </c>
-      <c r="G97">
-        <v>3.7083333330000001</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>22</v>
-      </c>
-      <c r="B98">
-        <v>0.9</v>
-      </c>
-      <c r="C98">
-        <v>0</v>
-      </c>
-      <c r="D98" t="s">
-        <v>29</v>
-      </c>
-      <c r="E98" t="s">
-        <v>31</v>
-      </c>
-      <c r="F98" t="s">
-        <v>8</v>
-      </c>
-      <c r="G98">
-        <v>3.7083333330000001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>17</v>
-      </c>
-      <c r="B99">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-      <c r="D99" t="s">
-        <v>5</v>
-      </c>
-      <c r="E99" t="s">
-        <v>6</v>
-      </c>
-      <c r="F99" t="s">
-        <v>8</v>
-      </c>
-      <c r="G99">
-        <v>5.6666666670000003</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>17</v>
-      </c>
-      <c r="B100">
-        <v>0.1</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100" t="s">
-        <v>26</v>
-      </c>
-      <c r="E100" t="s">
-        <v>27</v>
-      </c>
-      <c r="F100" t="s">
-        <v>8</v>
-      </c>
-      <c r="G100">
-        <v>5.6666666670000003</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>17</v>
-      </c>
-      <c r="B101">
-        <v>1.6</v>
-      </c>
-      <c r="C101">
-        <v>0</v>
-      </c>
-      <c r="D101" t="s">
-        <v>26</v>
-      </c>
-      <c r="E101" t="s">
-        <v>28</v>
-      </c>
-      <c r="F101" t="s">
-        <v>8</v>
-      </c>
-      <c r="G101">
-        <v>5.6666666670000003</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>17</v>
-      </c>
-      <c r="B102">
-        <v>0.1</v>
-      </c>
-      <c r="C102">
-        <v>0</v>
-      </c>
-      <c r="D102" t="s">
-        <v>29</v>
-      </c>
-      <c r="E102" t="s">
-        <v>30</v>
-      </c>
-      <c r="F102" t="s">
-        <v>8</v>
-      </c>
-      <c r="G102">
-        <v>5.6666666670000003</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>17</v>
-      </c>
-      <c r="B103">
-        <v>0.2</v>
-      </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-      <c r="D103" t="s">
-        <v>29</v>
-      </c>
-      <c r="E103" t="s">
-        <v>31</v>
-      </c>
-      <c r="F103" t="s">
-        <v>8</v>
-      </c>
-      <c r="G103">
-        <v>5.6666666670000003</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>17</v>
-      </c>
-      <c r="B104">
-        <v>1.8</v>
-      </c>
-      <c r="C104">
-        <v>10.6</v>
-      </c>
-      <c r="D104" t="s">
-        <v>5</v>
-      </c>
-      <c r="E104" t="s">
-        <v>14</v>
-      </c>
-      <c r="F104" t="s">
-        <v>8</v>
-      </c>
-      <c r="G104">
-        <v>5.6666666670000003</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>15</v>
-      </c>
-      <c r="B105">
-        <v>0.4</v>
-      </c>
-      <c r="C105">
-        <v>0</v>
-      </c>
-      <c r="D105" t="s">
-        <v>5</v>
-      </c>
-      <c r="E105" t="s">
-        <v>6</v>
-      </c>
-      <c r="F105" t="s">
-        <v>8</v>
-      </c>
-      <c r="G105">
-        <v>41.857142860000003</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>15</v>
-      </c>
-      <c r="B106">
-        <v>2.7</v>
-      </c>
-      <c r="C106">
-        <v>0</v>
-      </c>
-      <c r="D106" t="s">
-        <v>26</v>
-      </c>
-      <c r="E106" t="s">
-        <v>28</v>
-      </c>
-      <c r="F106" t="s">
-        <v>8</v>
-      </c>
-      <c r="G106">
-        <v>41.857142860000003</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>15</v>
-      </c>
-      <c r="B107">
-        <v>6.2</v>
-      </c>
-      <c r="C107">
-        <v>0.9</v>
-      </c>
-      <c r="D107" t="s">
-        <v>29</v>
-      </c>
-      <c r="E107" t="s">
-        <v>30</v>
-      </c>
-      <c r="F107" t="s">
-        <v>8</v>
-      </c>
-      <c r="G107">
-        <v>41.857142860000003</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>15</v>
-      </c>
-      <c r="B108">
-        <v>6</v>
-      </c>
-      <c r="C108">
-        <v>1.5</v>
-      </c>
-      <c r="D108" t="s">
-        <v>29</v>
-      </c>
-      <c r="E108" t="s">
-        <v>31</v>
-      </c>
-      <c r="F108" t="s">
-        <v>8</v>
-      </c>
-      <c r="G108">
-        <v>41.857142860000003</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>16</v>
-      </c>
-      <c r="B109">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C109">
-        <v>0</v>
-      </c>
-      <c r="D109" t="s">
-        <v>5</v>
-      </c>
-      <c r="E109" t="s">
-        <v>6</v>
-      </c>
-      <c r="F109" t="s">
-        <v>8</v>
-      </c>
-      <c r="G109">
-        <v>58.5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>16</v>
-      </c>
-      <c r="B110">
-        <v>12.7</v>
-      </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-      <c r="D110" t="s">
-        <v>26</v>
-      </c>
-      <c r="E110" t="s">
-        <v>27</v>
-      </c>
-      <c r="F110" t="s">
-        <v>8</v>
-      </c>
-      <c r="G110">
-        <v>58.5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>16</v>
-      </c>
-      <c r="B111">
-        <v>11.8</v>
-      </c>
-      <c r="C111">
-        <v>0</v>
-      </c>
-      <c r="D111" t="s">
-        <v>26</v>
-      </c>
-      <c r="E111" t="s">
-        <v>28</v>
-      </c>
-      <c r="F111" t="s">
-        <v>8</v>
-      </c>
-      <c r="G111">
-        <v>58.5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>16</v>
-      </c>
-      <c r="B112">
-        <v>6.2</v>
-      </c>
-      <c r="C112">
-        <v>0.1</v>
-      </c>
-      <c r="D112" t="s">
-        <v>29</v>
-      </c>
-      <c r="E112" t="s">
-        <v>30</v>
-      </c>
-      <c r="F112" t="s">
-        <v>8</v>
-      </c>
-      <c r="G112">
-        <v>58.5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>16</v>
-      </c>
-      <c r="B113">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C113">
-        <v>2</v>
-      </c>
-      <c r="D113" t="s">
-        <v>29</v>
-      </c>
-      <c r="E113" t="s">
-        <v>31</v>
-      </c>
-      <c r="F113" t="s">
-        <v>8</v>
-      </c>
-      <c r="G113">
-        <v>58.5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>2</v>
-      </c>
-      <c r="B114">
-        <v>41.4</v>
-      </c>
-      <c r="C114">
-        <v>1.6</v>
-      </c>
-      <c r="D114" t="s">
-        <v>29</v>
-      </c>
-      <c r="E114" t="s">
-        <v>30</v>
-      </c>
-      <c r="F114" t="s">
-        <v>8</v>
-      </c>
-      <c r="G114">
-        <v>58.681818181818102</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>2</v>
-      </c>
-      <c r="B115">
-        <v>12</v>
-      </c>
-      <c r="C115">
-        <v>1.7</v>
-      </c>
-      <c r="D115" t="s">
-        <v>5</v>
-      </c>
-      <c r="E115" t="s">
-        <v>6</v>
-      </c>
-      <c r="F115" t="s">
-        <v>8</v>
-      </c>
-      <c r="G115">
-        <v>58.681818181818102</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>2</v>
-      </c>
-      <c r="B116">
-        <v>56.3</v>
-      </c>
-      <c r="C116">
-        <v>1.9</v>
-      </c>
-      <c r="D116" t="s">
-        <v>29</v>
-      </c>
-      <c r="E116" t="s">
-        <v>31</v>
-      </c>
-      <c r="F116" t="s">
-        <v>8</v>
-      </c>
-      <c r="G116">
-        <v>58.681818181818102</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>2</v>
-      </c>
-      <c r="B117">
-        <v>23</v>
-      </c>
-      <c r="C117">
-        <v>2.7</v>
-      </c>
-      <c r="D117" t="s">
-        <v>26</v>
-      </c>
-      <c r="E117" t="s">
-        <v>28</v>
-      </c>
-      <c r="F117" t="s">
-        <v>8</v>
-      </c>
-      <c r="G117">
-        <v>58.681818181818102</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>2</v>
-      </c>
-      <c r="B118">
-        <v>23.8</v>
-      </c>
-      <c r="C118">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D118" t="s">
-        <v>26</v>
-      </c>
-      <c r="E118" t="s">
-        <v>27</v>
-      </c>
-      <c r="F118" t="s">
-        <v>8</v>
-      </c>
-      <c r="G118">
-        <v>58.681818181818102</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>2</v>
-      </c>
-      <c r="B119">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="C119">
-        <v>9.6</v>
-      </c>
-      <c r="D119" t="s">
-        <v>5</v>
-      </c>
-      <c r="E119" t="s">
-        <v>14</v>
-      </c>
-      <c r="F119" t="s">
-        <v>8</v>
-      </c>
-      <c r="G119">
-        <v>58.681818181818102</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>12</v>
-      </c>
-      <c r="B120">
-        <v>0.2</v>
-      </c>
-      <c r="C120">
-        <v>0</v>
-      </c>
-      <c r="D120" t="s">
-        <v>29</v>
-      </c>
-      <c r="E120" t="s">
-        <v>30</v>
-      </c>
-      <c r="F120" t="s">
-        <v>8</v>
-      </c>
-      <c r="G120">
-        <v>148.65217390000001</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>12</v>
-      </c>
-      <c r="B121">
-        <v>0.8</v>
-      </c>
-      <c r="C121">
-        <v>0</v>
-      </c>
-      <c r="D121" t="s">
-        <v>29</v>
-      </c>
-      <c r="E121" t="s">
-        <v>31</v>
-      </c>
-      <c r="F121" t="s">
-        <v>8</v>
-      </c>
-      <c r="G121">
-        <v>148.65217390000001</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>12</v>
-      </c>
-      <c r="B122">
-        <v>29.8</v>
-      </c>
-      <c r="C122">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D122" t="s">
-        <v>5</v>
-      </c>
-      <c r="E122" t="s">
-        <v>6</v>
-      </c>
-      <c r="F122" t="s">
-        <v>8</v>
-      </c>
-      <c r="G122">
-        <v>148.65217390000001</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>12</v>
-      </c>
-      <c r="B123">
-        <v>8.1</v>
-      </c>
-      <c r="C123">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D123" t="s">
-        <v>5</v>
-      </c>
-      <c r="E123" t="s">
-        <v>14</v>
-      </c>
-      <c r="F123" t="s">
-        <v>8</v>
-      </c>
-      <c r="G123">
-        <v>148.65217390000001</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>12</v>
-      </c>
-      <c r="B124">
-        <v>8.9</v>
-      </c>
-      <c r="C124">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D124" t="s">
-        <v>26</v>
-      </c>
-      <c r="E124" t="s">
-        <v>28</v>
-      </c>
-      <c r="F124" t="s">
-        <v>8</v>
-      </c>
-      <c r="G124">
-        <v>148.65217390000001</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>12</v>
-      </c>
-      <c r="B125">
-        <v>18</v>
-      </c>
-      <c r="C125">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="D125" t="s">
-        <v>26</v>
-      </c>
-      <c r="E125" t="s">
-        <v>27</v>
-      </c>
-      <c r="F125" t="s">
-        <v>8</v>
-      </c>
-      <c r="G125">
-        <v>148.65217390000001</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>11</v>
-      </c>
-      <c r="B126">
-        <v>6.7</v>
-      </c>
-      <c r="C126">
-        <v>0</v>
-      </c>
-      <c r="D126" t="s">
-        <v>5</v>
-      </c>
-      <c r="E126" t="s">
-        <v>14</v>
-      </c>
-      <c r="F126" t="s">
-        <v>8</v>
-      </c>
-      <c r="G126">
-        <v>204.4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>11</v>
-      </c>
-      <c r="B127">
-        <v>1.7</v>
-      </c>
-      <c r="C127">
-        <v>0</v>
-      </c>
-      <c r="D127" t="s">
-        <v>29</v>
-      </c>
-      <c r="E127" t="s">
-        <v>30</v>
-      </c>
-      <c r="F127" t="s">
-        <v>8</v>
-      </c>
-      <c r="G127">
-        <v>204.4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>11</v>
-      </c>
-      <c r="B128">
-        <v>0.3</v>
-      </c>
-      <c r="C128">
-        <v>0</v>
-      </c>
-      <c r="D128" t="s">
-        <v>29</v>
-      </c>
-      <c r="E128" t="s">
-        <v>31</v>
-      </c>
-      <c r="F128" t="s">
-        <v>8</v>
-      </c>
-      <c r="G128">
-        <v>204.4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>11</v>
-      </c>
-      <c r="B129">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C129">
-        <v>0.2</v>
-      </c>
-      <c r="D129" t="s">
-        <v>26</v>
-      </c>
-      <c r="E129" t="s">
-        <v>28</v>
-      </c>
-      <c r="F129" t="s">
-        <v>8</v>
-      </c>
-      <c r="G129">
-        <v>204.4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>11</v>
-      </c>
-      <c r="B130">
-        <v>2.5</v>
-      </c>
-      <c r="C130">
-        <v>0.7</v>
-      </c>
-      <c r="D130" t="s">
-        <v>5</v>
-      </c>
-      <c r="E130" t="s">
-        <v>6</v>
-      </c>
-      <c r="F130" t="s">
-        <v>8</v>
-      </c>
-      <c r="G130">
-        <v>204.4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>11</v>
-      </c>
-      <c r="B131">
-        <v>5.7</v>
-      </c>
-      <c r="C131">
-        <v>2</v>
-      </c>
-      <c r="D131" t="s">
-        <v>26</v>
-      </c>
-      <c r="E131" t="s">
-        <v>27</v>
-      </c>
-      <c r="F131" t="s">
-        <v>8</v>
-      </c>
-      <c r="G131">
-        <v>204.4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>13</v>
-      </c>
-      <c r="B132">
-        <v>11.1</v>
-      </c>
-      <c r="C132">
-        <v>8.4</v>
-      </c>
-      <c r="D132" t="s">
-        <v>29</v>
-      </c>
-      <c r="E132" t="s">
-        <v>30</v>
-      </c>
-      <c r="F132" t="s">
-        <v>8</v>
-      </c>
-      <c r="G132">
-        <v>340.15384619999998</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>13</v>
-      </c>
-      <c r="B133">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C133">
-        <v>9.5</v>
-      </c>
-      <c r="D133" t="s">
-        <v>29</v>
-      </c>
-      <c r="E133" t="s">
-        <v>31</v>
-      </c>
-      <c r="F133" t="s">
-        <v>8</v>
-      </c>
-      <c r="G133">
-        <v>340.15384619999998</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>13</v>
-      </c>
-      <c r="B134">
-        <v>4</v>
-      </c>
-      <c r="C134">
-        <v>12</v>
-      </c>
-      <c r="D134" t="s">
-        <v>26</v>
-      </c>
-      <c r="E134" t="s">
-        <v>28</v>
-      </c>
-      <c r="F134" t="s">
-        <v>8</v>
-      </c>
-      <c r="G134">
-        <v>340.15384619999998</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>13</v>
-      </c>
-      <c r="B135">
-        <v>35.6</v>
-      </c>
-      <c r="C135">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="D135" t="s">
-        <v>5</v>
-      </c>
-      <c r="E135" t="s">
-        <v>14</v>
-      </c>
-      <c r="F135" t="s">
-        <v>8</v>
-      </c>
-      <c r="G135">
-        <v>340.15384619999998</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>13</v>
-      </c>
-      <c r="B136">
-        <v>16</v>
-      </c>
-      <c r="C136">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="D136" t="s">
-        <v>5</v>
-      </c>
-      <c r="E136" t="s">
-        <v>6</v>
-      </c>
-      <c r="F136" t="s">
-        <v>8</v>
-      </c>
-      <c r="G136">
-        <v>340.15384619999998</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>13</v>
-      </c>
-      <c r="B137">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C137">
-        <v>22.4</v>
-      </c>
-      <c r="D137" t="s">
-        <v>26</v>
-      </c>
-      <c r="E137" t="s">
-        <v>27</v>
-      </c>
-      <c r="F137" t="s">
-        <v>8</v>
-      </c>
-      <c r="G137">
-        <v>340.15384619999998</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>18</v>
-      </c>
-      <c r="B138">
-        <v>0.8</v>
-      </c>
-      <c r="C138">
-        <v>0</v>
-      </c>
-      <c r="D138" t="s">
-        <v>5</v>
-      </c>
-      <c r="E138" t="s">
-        <v>6</v>
-      </c>
-      <c r="F138" t="s">
-        <v>8</v>
-      </c>
-      <c r="G138">
-        <v>425.57142859999999</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>18</v>
-      </c>
-      <c r="B139">
-        <v>0.7</v>
-      </c>
-      <c r="C139">
-        <v>0</v>
-      </c>
-      <c r="D139" t="s">
-        <v>29</v>
-      </c>
-      <c r="E139" t="s">
-        <v>30</v>
-      </c>
-      <c r="F139" t="s">
-        <v>8</v>
-      </c>
-      <c r="G139">
-        <v>425.57142859999999</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>18</v>
-      </c>
-      <c r="B140">
-        <v>0.2</v>
-      </c>
-      <c r="C140">
-        <v>0</v>
-      </c>
-      <c r="D140" t="s">
-        <v>29</v>
-      </c>
-      <c r="E140" t="s">
-        <v>31</v>
-      </c>
-      <c r="F140" t="s">
-        <v>8</v>
-      </c>
-      <c r="G140">
-        <v>425.57142859999999</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>18</v>
-      </c>
-      <c r="B141">
-        <v>1.2</v>
-      </c>
-      <c r="C141">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D141" t="s">
-        <v>5</v>
-      </c>
-      <c r="E141" t="s">
-        <v>14</v>
-      </c>
-      <c r="F141" t="s">
-        <v>8</v>
-      </c>
-      <c r="G141">
-        <v>425.57142859999999</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>18</v>
-      </c>
-      <c r="B142">
-        <v>1.8</v>
-      </c>
-      <c r="C142">
-        <v>11.9</v>
-      </c>
-      <c r="D142" t="s">
-        <v>26</v>
-      </c>
-      <c r="E142" t="s">
-        <v>27</v>
-      </c>
-      <c r="F142" t="s">
-        <v>8</v>
-      </c>
-      <c r="G142">
-        <v>425.57142859999999</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>18</v>
-      </c>
-      <c r="B143">
-        <v>2</v>
-      </c>
-      <c r="C143">
-        <v>13.4</v>
-      </c>
-      <c r="D143" t="s">
-        <v>26</v>
-      </c>
-      <c r="E143" t="s">
-        <v>28</v>
-      </c>
-      <c r="F143" t="s">
-        <v>8</v>
-      </c>
-      <c r="G143">
-        <v>425.57142859999999</v>
-      </c>
-    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A83:G143">
     <sortCondition ref="G83:G143"/>
